--- a/openpyxl/freezePanesAddFilters.xlsx
+++ b/openpyxl/freezePanesAddFilters.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -501,7 +501,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>